--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H2">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I2">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J2">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N2">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q2">
-        <v>103.665129597401</v>
+        <v>7.468678449420445</v>
       </c>
       <c r="R2">
-        <v>103.665129597401</v>
+        <v>67.21810604478401</v>
       </c>
       <c r="S2">
-        <v>0.02262972729664609</v>
+        <v>0.001490459653317989</v>
       </c>
       <c r="T2">
-        <v>0.02262972729664609</v>
+        <v>0.00149045965331799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H3">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I3">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J3">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N3">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q3">
-        <v>809.0722736542408</v>
+        <v>27.50523416491556</v>
       </c>
       <c r="R3">
-        <v>809.0722736542408</v>
+        <v>247.5471074842401</v>
       </c>
       <c r="S3">
-        <v>0.1766175857511484</v>
+        <v>0.005488982027476538</v>
       </c>
       <c r="T3">
-        <v>0.1766175857511484</v>
+        <v>0.00548898202747654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H4">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I4">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J4">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N4">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q4">
-        <v>1161.15153874672</v>
+        <v>41.04047279024355</v>
       </c>
       <c r="R4">
-        <v>1161.15153874672</v>
+        <v>369.364255112192</v>
       </c>
       <c r="S4">
-        <v>0.2534752310055284</v>
+        <v>0.00819009269996078</v>
       </c>
       <c r="T4">
-        <v>0.2534752310055284</v>
+        <v>0.008190092699960783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>73.512977440605</v>
+        <v>2.488197333333333</v>
       </c>
       <c r="H5">
-        <v>73.512977440605</v>
+        <v>7.464592000000001</v>
       </c>
       <c r="I5">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="J5">
-        <v>0.8845077257991714</v>
+        <v>0.02883014447233219</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N5">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q5">
-        <v>1977.976412935152</v>
+        <v>68.45318084912178</v>
       </c>
       <c r="R5">
-        <v>1977.976412935152</v>
+        <v>616.0786276420961</v>
       </c>
       <c r="S5">
-        <v>0.4317851817458485</v>
+        <v>0.01366061009157688</v>
       </c>
       <c r="T5">
-        <v>0.4317851817458485</v>
+        <v>0.01366061009157688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.598764035914581</v>
+        <v>73.57664233333334</v>
       </c>
       <c r="H6">
-        <v>9.598764035914581</v>
+        <v>220.729927</v>
       </c>
       <c r="I6">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432205</v>
       </c>
       <c r="J6">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N6">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q6">
-        <v>13.53580214543638</v>
+        <v>220.8507643722588</v>
       </c>
       <c r="R6">
-        <v>13.53580214543638</v>
+        <v>1987.656879350329</v>
       </c>
       <c r="S6">
-        <v>0.002954817232006449</v>
+        <v>0.04407327962108647</v>
       </c>
       <c r="T6">
-        <v>0.002954817232006449</v>
+        <v>0.04407327962108649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.598764035914581</v>
+        <v>73.57664233333334</v>
       </c>
       <c r="H7">
-        <v>9.598764035914581</v>
+        <v>220.729927</v>
       </c>
       <c r="I7">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432205</v>
       </c>
       <c r="J7">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432206</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N7">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q7">
-        <v>105.6424880774636</v>
+        <v>813.3369284402573</v>
       </c>
       <c r="R7">
-        <v>105.6424880774636</v>
+        <v>7320.032355962317</v>
       </c>
       <c r="S7">
-        <v>0.02306137758585433</v>
+        <v>0.1623106262511345</v>
       </c>
       <c r="T7">
-        <v>0.02306137758585433</v>
+        <v>0.1623106262511345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.598764035914581</v>
+        <v>73.57664233333334</v>
       </c>
       <c r="H8">
-        <v>9.598764035914581</v>
+        <v>220.729927</v>
       </c>
       <c r="I8">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432205</v>
       </c>
       <c r="J8">
-        <v>0.1154922742008286</v>
+        <v>0.8525148708432206</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N8">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q8">
-        <v>151.6143138043078</v>
+        <v>1213.57745514235</v>
       </c>
       <c r="R8">
-        <v>151.6143138043078</v>
+        <v>10922.19709628115</v>
       </c>
       <c r="S8">
-        <v>0.0330968628408065</v>
+        <v>0.2421831714024793</v>
       </c>
       <c r="T8">
-        <v>0.0330968628408065</v>
+        <v>0.2421831714024794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>73.57664233333334</v>
+      </c>
+      <c r="H9">
+        <v>220.729927</v>
+      </c>
+      <c r="I9">
+        <v>0.8525148708432205</v>
+      </c>
+      <c r="J9">
+        <v>0.8525148708432206</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.51115433333333</v>
+      </c>
+      <c r="N9">
+        <v>82.533463</v>
+      </c>
+      <c r="O9">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="P9">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="Q9">
+        <v>2024.1783625608</v>
+      </c>
+      <c r="R9">
+        <v>18217.6052630472</v>
+      </c>
+      <c r="S9">
+        <v>0.4039477935685202</v>
+      </c>
+      <c r="T9">
+        <v>0.4039477935685203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.048962</v>
+      </c>
+      <c r="H10">
+        <v>0.146886</v>
+      </c>
+      <c r="I10">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J10">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.001642333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.004927</v>
+      </c>
+      <c r="O10">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="P10">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="Q10">
+        <v>0.1469664119246667</v>
+      </c>
+      <c r="R10">
+        <v>1.322697707322</v>
+      </c>
+      <c r="S10">
+        <v>2.932881752107365E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.932881752107365E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.048962</v>
+      </c>
+      <c r="H11">
+        <v>0.146886</v>
+      </c>
+      <c r="I11">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J11">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.05428166666667</v>
+      </c>
+      <c r="N11">
+        <v>33.162845</v>
+      </c>
+      <c r="O11">
+        <v>0.1903903753498087</v>
+      </c>
+      <c r="P11">
+        <v>0.1903903753498088</v>
+      </c>
+      <c r="Q11">
+        <v>0.5412397389633334</v>
+      </c>
+      <c r="R11">
+        <v>4.87115765067</v>
+      </c>
+      <c r="S11">
+        <v>0.0001080105401725799</v>
+      </c>
+      <c r="T11">
+        <v>0.0001080105401725799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.048962</v>
+      </c>
+      <c r="H12">
+        <v>0.146886</v>
+      </c>
+      <c r="I12">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J12">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.49405866666666</v>
+      </c>
+      <c r="N12">
+        <v>49.482176</v>
+      </c>
+      <c r="O12">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="P12">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="Q12">
+        <v>0.8075821004373331</v>
+      </c>
+      <c r="R12">
+        <v>7.268238903935999</v>
+      </c>
+      <c r="S12">
+        <v>0.0001611621849293892</v>
+      </c>
+      <c r="T12">
+        <v>0.0001611621849293892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.048962</v>
+      </c>
+      <c r="H13">
+        <v>0.146886</v>
+      </c>
+      <c r="I13">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="J13">
+        <v>0.0005673109261648842</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.51115433333333</v>
+      </c>
+      <c r="N13">
+        <v>82.533463</v>
+      </c>
+      <c r="O13">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="P13">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="Q13">
+        <v>1.347001138468667</v>
+      </c>
+      <c r="R13">
+        <v>12.123010246218</v>
+      </c>
+      <c r="S13">
+        <v>0.0002688093835418414</v>
+      </c>
+      <c r="T13">
+        <v>0.0002688093835418415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H14">
+        <v>30.574814</v>
+      </c>
+      <c r="I14">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J14">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.001642333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.004927</v>
+      </c>
+      <c r="O14">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="P14">
+        <v>0.05169795991651582</v>
+      </c>
+      <c r="Q14">
+        <v>30.59155201206422</v>
+      </c>
+      <c r="R14">
+        <v>275.323968108578</v>
+      </c>
+      <c r="S14">
+        <v>0.006104891824590278</v>
+      </c>
+      <c r="T14">
+        <v>0.00610489182459028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>9.598764035914581</v>
-      </c>
-      <c r="H9">
-        <v>9.598764035914581</v>
-      </c>
-      <c r="I9">
-        <v>0.1154922742008286</v>
-      </c>
-      <c r="J9">
-        <v>0.1154922742008286</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.9064930002769</v>
-      </c>
-      <c r="N9">
-        <v>26.9064930002769</v>
-      </c>
-      <c r="O9">
-        <v>0.4881643982880098</v>
-      </c>
-      <c r="P9">
-        <v>0.4881643982880098</v>
-      </c>
-      <c r="Q9">
-        <v>258.2690773436453</v>
-      </c>
-      <c r="R9">
-        <v>258.2690773436453</v>
-      </c>
-      <c r="S9">
-        <v>0.05637921654216134</v>
-      </c>
-      <c r="T9">
-        <v>0.05637921654216134</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H15">
+        <v>30.574814</v>
+      </c>
+      <c r="I15">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J15">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.05428166666667</v>
+      </c>
+      <c r="N15">
+        <v>33.162845</v>
+      </c>
+      <c r="O15">
+        <v>0.1903903753498087</v>
+      </c>
+      <c r="P15">
+        <v>0.1903903753498088</v>
+      </c>
+      <c r="Q15">
+        <v>112.6608686206478</v>
+      </c>
+      <c r="R15">
+        <v>1013.94781758583</v>
+      </c>
+      <c r="S15">
+        <v>0.02248275653102514</v>
+      </c>
+      <c r="T15">
+        <v>0.02248275653102515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H16">
+        <v>30.574814</v>
+      </c>
+      <c r="I16">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J16">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.49405866666666</v>
+      </c>
+      <c r="N16">
+        <v>49.482176</v>
+      </c>
+      <c r="O16">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="P16">
+        <v>0.2840808761059341</v>
+      </c>
+      <c r="Q16">
+        <v>168.1009252794737</v>
+      </c>
+      <c r="R16">
+        <v>1512.908327515264</v>
+      </c>
+      <c r="S16">
+        <v>0.03354644981856458</v>
+      </c>
+      <c r="T16">
+        <v>0.03354644981856459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.19160466666666</v>
+      </c>
+      <c r="H17">
+        <v>30.574814</v>
+      </c>
+      <c r="I17">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="J17">
+        <v>0.1180876737582824</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>27.51115433333333</v>
+      </c>
+      <c r="N17">
+        <v>82.533463</v>
+      </c>
+      <c r="O17">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="P17">
+        <v>0.4738307886277414</v>
+      </c>
+      <c r="Q17">
+        <v>280.3828088889869</v>
+      </c>
+      <c r="R17">
+        <v>2523.445280000882</v>
+      </c>
+      <c r="S17">
+        <v>0.05595357558410238</v>
+      </c>
+      <c r="T17">
+        <v>0.05595357558410239</v>
       </c>
     </row>
   </sheetData>
